--- a/DataMap_Lineage_Healtcare.xlsx
+++ b/DataMap_Lineage_Healtcare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prabalpathak\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D585C90-04CE-48A6-8497-8AB8A54E9CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA74F52-6789-4D00-9636-24147E7CAE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3EF62494-68C6-4A85-91D5-9E0CFC300F6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3EF62494-68C6-4A85-91D5-9E0CFC300F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="BulkEntities" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="200">
   <si>
     <t>Target typeName</t>
   </si>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,6 +1672,9 @@
       </c>
       <c r="F34" t="s">
         <v>154</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
